--- a/reporting/Остатки 2023.xlsx
+++ b/reporting/Остатки 2023.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCMDB\reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9D8631-C72E-4054-86BA-714FD39B57CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5EB68A-3AA7-4128-B048-013D008CB3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
   <si>
     <t>№</t>
   </si>
@@ -93,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -101,6 +102,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -381,20 +383,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="5" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>499633200</v>
+      </c>
+      <c r="D3" s="1">
+        <v>267465600</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3" si="0">C3-D3</f>
+        <v>232167600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>447866900.00058001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>131804307.396</v>
+      </c>
+      <c r="E4" s="1">
+        <f>C4-D4</f>
+        <v>316062592.60458004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>597939288.26399994</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E6" si="1">C5-D5</f>
+        <v>597939288.26399994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>242906937.12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>87146512.293599993</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>155760424.82640001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <f>SUM(C3:C6)</f>
+        <v>1788346325.3845801</v>
+      </c>
+      <c r="D7" s="2">
+        <f>SUM(D3:D6)</f>
+        <v>486416419.68959999</v>
+      </c>
+      <c r="E7" s="2">
+        <f>SUM(E3:E6)</f>
+        <v>1301929905.6949799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="5">
+        <v>45110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4729C56A-9D01-4667-B968-5DD289E04C0D}">
   <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" customWidth="1"/>
-    <col min="3" max="5" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -411,7 +542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -429,7 +560,7 @@
         <v>232167600</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -447,7 +578,7 @@
         <v>467250150.78599995</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>51</v>
       </c>
@@ -465,7 +596,7 @@
         <v>950887094.12000012</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>52</v>
       </c>
@@ -483,7 +614,7 @@
         <v>1036533078</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -501,7 +632,7 @@
         <v>752456700</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f>SUM(C3:C7)</f>
         <v>3780745218.2160001</v>
